--- a/data/trans_orig/IP07A24_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A24_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE6D235B-F6E3-4614-A505-9821C1E1E8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38ED655D-8E15-43AF-ACB0-55F2430CA17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0EC968E2-E6D5-4166-A4C7-DCB79A0563C9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7EAACF1A-0742-4B87-8B95-5D7CEABDC7F9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="160">
   <si>
     <t>Menores según frecuencia de haberse divertido con sus amigos en 2023 (Tasa respuesta: 50,16%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>60,58%</t>
   </si>
   <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
   </si>
   <si>
     <t>74,98%</t>
   </si>
   <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
   </si>
   <si>
     <t>67,96%</t>
   </si>
   <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -104,28 +104,28 @@
     <t>34,03%</t>
   </si>
   <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
   </si>
   <si>
     <t>23,06%</t>
   </si>
   <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
   </si>
   <si>
     <t>28,41%</t>
   </si>
   <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -137,22 +137,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>16,96%</t>
+    <t>17,47%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>11,41%</t>
+    <t>10,82%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -182,112 +182,109 @@
     <t>72,66%</t>
   </si>
   <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
   </si>
   <si>
     <t>68,98%</t>
   </si>
   <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
   </si>
   <si>
     <t>70,97%</t>
   </si>
   <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
   </si>
   <si>
     <t>23,94%</t>
   </si>
   <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
   </si>
   <si>
     <t>28,29%</t>
   </si>
   <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
   </si>
   <si>
     <t>25,94%</t>
   </si>
   <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
   </si>
   <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
   </si>
   <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>1,97%</t>
+    <t>1,73%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>1,73%</t>
+    <t>2,07%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
+    <t>1,34%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
   </si>
   <si>
     <t>0,42%</t>
@@ -296,7 +293,7 @@
     <t>0,13%</t>
   </si>
   <si>
-    <t>1,2%</t>
+    <t>1,11%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -305,61 +302,61 @@
     <t>80,27%</t>
   </si>
   <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
   </si>
   <si>
     <t>77,17%</t>
   </si>
   <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
   </si>
   <si>
     <t>78,85%</t>
   </si>
   <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
   </si>
   <si>
     <t>17,79%</t>
   </si>
   <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
   </si>
   <si>
     <t>19,74%</t>
   </si>
   <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
   </si>
   <si>
     <t>18,69%</t>
   </si>
   <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
   </si>
   <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>1,88%</t>
+    <t>1,9%</t>
   </si>
   <si>
     <t>2,37%</t>
@@ -368,157 +365,154 @@
     <t>0,57%</t>
   </si>
   <si>
-    <t>6,64%</t>
+    <t>6,8%</t>
   </si>
   <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
+    <t>3,22%</t>
   </si>
   <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>4,17%</t>
+    <t>3,52%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
+    <t>4,78%</t>
+  </si>
+  <si>
     <t>1,67%</t>
   </si>
   <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>2,74%</t>
+    <t>2,5%</t>
   </si>
   <si>
     <t>73,67%</t>
   </si>
   <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
   </si>
   <si>
     <t>71,33%</t>
   </si>
   <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
   </si>
   <si>
     <t>72,59%</t>
   </si>
   <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
   </si>
   <si>
     <t>23,14%</t>
   </si>
   <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
   </si>
   <si>
     <t>25,92%</t>
   </si>
   <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
   </si>
   <si>
     <t>24,43%</t>
   </si>
   <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
   </si>
   <si>
     <t>2,22%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
   </si>
   <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>3,21%</t>
+    <t>3,25%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>1,59%</t>
+    <t>1,7%</t>
   </si>
   <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>1,63%</t>
+    <t>1,52%</t>
   </si>
   <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,92%</t>
+    <t>0,93%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -933,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00669D1-9C69-4367-981F-9EA769CE3AC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C657D744-B2A2-463B-9B0C-94BDE376FB86}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1551,10 +1545,10 @@
         <v>78</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1569,13 +1563,13 @@
         <v>863</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -1590,7 +1584,7 @@
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -1599,13 +1593,13 @@
         <v>2259</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1661,7 +1655,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1673,13 +1667,13 @@
         <v>78582</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>87</v>
@@ -1688,13 +1682,13 @@
         <v>64065</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>186</v>
@@ -1703,13 +1697,13 @@
         <v>142647</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1724,13 +1718,13 @@
         <v>17418</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -1739,13 +1733,13 @@
         <v>16391</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
@@ -1754,13 +1748,13 @@
         <v>33808</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1775,13 +1769,13 @@
         <v>364</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -1790,13 +1784,13 @@
         <v>1968</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -1805,13 +1799,13 @@
         <v>2332</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,13 +1820,13 @@
         <v>708</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -1841,13 +1835,13 @@
         <v>593</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -1856,13 +1850,13 @@
         <v>1302</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,13 +1871,13 @@
         <v>821</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -1898,7 +1892,7 @@
         <v>40</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -1907,13 +1901,13 @@
         <v>821</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,13 +1975,13 @@
         <v>308360</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>351</v>
@@ -1996,13 +1990,13 @@
         <v>257201</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>716</v>
@@ -2011,13 +2005,13 @@
         <v>565562</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,13 +2026,13 @@
         <v>96870</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>110</v>
@@ -2047,13 +2041,13 @@
         <v>93446</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>216</v>
@@ -2062,13 +2056,13 @@
         <v>190315</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,13 +2077,13 @@
         <v>9304</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -2098,13 +2092,13 @@
         <v>6932</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M24" s="7">
         <v>22</v>
@@ -2113,13 +2107,13 @@
         <v>16236</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2137,10 +2131,10 @@
         <v>74</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2149,13 +2143,13 @@
         <v>1586</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -2164,13 +2158,13 @@
         <v>3944</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2191,7 +2185,7 @@
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2200,13 +2194,13 @@
         <v>1396</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -2218,10 +2212,10 @@
         <v>76</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,7 +2271,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A24_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A24_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38ED655D-8E15-43AF-ACB0-55F2430CA17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94EBC92B-97F2-4635-9588-4A2BB79BB8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7EAACF1A-0742-4B87-8B95-5D7CEABDC7F9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E1921E7A-95DA-44B4-8061-696999EF5ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="160">
-  <si>
-    <t>Menores según frecuencia de haberse divertido con sus amigos en 2023 (Tasa respuesta: 50,16%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="177">
+  <si>
+    <t>Menores según frecuencia de haberse divertido con sus amigos en 2023 (Tasa respuesta: 50,1%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,448 +71,499 @@
     <t>Siempre</t>
   </si>
   <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
   </si>
   <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
   </si>
   <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
   </si>
   <si>
     <t>Casi nunca</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
     <t>100%</t>
   </si>
   <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
   </si>
   <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
     <t>4,02%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -927,7 +978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C657D744-B2A2-463B-9B0C-94BDE376FB86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3443E76-F101-493D-BB33-2090A75E61C5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1045,10 +1096,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>16126</v>
+        <v>2512</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1060,238 +1111,238 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>20982</v>
+        <v>716</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>3</v>
+      </c>
+      <c r="N4" s="7">
+        <v>3228</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>48</v>
-      </c>
-      <c r="N4" s="7">
-        <v>37108</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>391</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>9</v>
-      </c>
-      <c r="D5" s="7">
-        <v>9060</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>910</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1301</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>7</v>
-      </c>
-      <c r="I5" s="7">
-        <v>6454</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>16</v>
-      </c>
-      <c r="N5" s="7">
-        <v>15514</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>1435</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>548</v>
+        <v>741</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M6" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>1982</v>
+        <v>741</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="7">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5837</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="7">
+        <v>6</v>
+      </c>
+      <c r="I7" s="7">
+        <v>6129</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="7">
+        <v>16</v>
+      </c>
+      <c r="N7" s="7">
+        <v>11966</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="7">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7">
+        <v>19842</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>19039</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>38881</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1300,306 +1351,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>34</v>
+      </c>
+      <c r="D9" s="7">
+        <v>28582</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="7">
         <v>33</v>
       </c>
-      <c r="D9" s="7">
-        <v>26621</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="7">
-        <v>34</v>
-      </c>
       <c r="I9" s="7">
-        <v>27983</v>
+        <v>27535</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
         <v>67</v>
       </c>
       <c r="N9" s="7">
-        <v>54604</v>
+        <v>56116</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>244</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>213652</v>
+        <v>5173</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H10" s="7">
-        <v>238</v>
+        <v>15</v>
       </c>
       <c r="I10" s="7">
-        <v>172155</v>
+        <v>12979</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M10" s="7">
-        <v>482</v>
+        <v>22</v>
       </c>
       <c r="N10" s="7">
-        <v>385807</v>
+        <v>18153</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="D11" s="7">
-        <v>70392</v>
+        <v>5521</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H11" s="7">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="I11" s="7">
-        <v>70601</v>
+        <v>5372</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="M11" s="7">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c r="N11" s="7">
-        <v>140993</v>
+        <v>10893</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7">
         <v>9</v>
       </c>
       <c r="D12" s="7">
-        <v>7505</v>
+        <v>6531</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H12" s="7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I12" s="7">
-        <v>4416</v>
+        <v>8964</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M12" s="7">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N12" s="7">
-        <v>11921</v>
+        <v>15495</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D13" s="7">
-        <v>1649</v>
+        <v>43692</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="I13" s="7">
-        <v>993</v>
+        <v>69425</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>133</v>
       </c>
       <c r="N13" s="7">
-        <v>2642</v>
+        <v>113117</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>241</v>
       </c>
       <c r="D14" s="7">
-        <v>863</v>
+        <v>197694</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>226</v>
       </c>
       <c r="I14" s="7">
-        <v>1396</v>
+        <v>212505</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>467</v>
       </c>
       <c r="N14" s="7">
-        <v>2259</v>
+        <v>410199</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,306 +1659,306 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D15" s="7">
-        <v>294061</v>
+        <v>258611</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H15" s="7">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="I15" s="7">
-        <v>249562</v>
+        <v>309246</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="M15" s="7">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N15" s="7">
-        <v>543623</v>
+        <v>567857</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>835</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="7">
-        <v>78582</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>64065</v>
+        <v>4465</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
-        <v>186</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>142647</v>
+        <v>5300</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>17418</v>
+        <v>821</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>16391</v>
+        <v>988</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M17" s="7">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>33808</v>
+        <v>1809</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>364</v>
+        <v>1534</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="H18" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I18" s="7">
-        <v>1968</v>
+        <v>4270</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M18" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N18" s="7">
-        <v>2332</v>
+        <v>5804</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D19" s="7">
-        <v>708</v>
+        <v>10194</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I19" s="7">
-        <v>593</v>
+        <v>11029</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="M19" s="7">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="N19" s="7">
-        <v>1302</v>
+        <v>21224</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D20" s="7">
-        <v>821</v>
+        <v>67397</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>82190</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
-        <v>1</v>
+        <v>194</v>
       </c>
       <c r="N20" s="7">
-        <v>821</v>
+        <v>149587</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,49 +1967,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>114</v>
+      </c>
+      <c r="D21" s="7">
+        <v>80781</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="7">
         <v>122</v>
       </c>
-      <c r="D21" s="7">
-        <v>97893</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" s="7">
-        <v>114</v>
-      </c>
       <c r="I21" s="7">
-        <v>83017</v>
+        <v>102943</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="M21" s="7">
         <v>236</v>
       </c>
       <c r="N21" s="7">
-        <v>180910</v>
+        <v>183724</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,253 +2020,253 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>365</v>
+        <v>10</v>
       </c>
       <c r="D22" s="7">
-        <v>308360</v>
+        <v>8520</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="H22" s="7">
-        <v>351</v>
+        <v>18</v>
       </c>
       <c r="I22" s="7">
-        <v>257201</v>
+        <v>18161</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="M22" s="7">
-        <v>716</v>
+        <v>28</v>
       </c>
       <c r="N22" s="7">
-        <v>565562</v>
+        <v>26681</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="7">
+        <v>10</v>
+      </c>
+      <c r="D23" s="7">
+        <v>6733</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H23" s="7">
+        <v>10</v>
+      </c>
+      <c r="I23" s="7">
+        <v>7270</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M23" s="7">
         <v>20</v>
       </c>
-      <c r="C23" s="7">
-        <v>106</v>
-      </c>
-      <c r="D23" s="7">
-        <v>96870</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H23" s="7">
-        <v>110</v>
-      </c>
-      <c r="I23" s="7">
-        <v>93446</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="M23" s="7">
-        <v>216</v>
-      </c>
       <c r="N23" s="7">
-        <v>190315</v>
+        <v>14003</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C24" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D24" s="7">
-        <v>9304</v>
+        <v>8065</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="H24" s="7">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I24" s="7">
-        <v>6932</v>
+        <v>13976</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="M24" s="7">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N24" s="7">
-        <v>16236</v>
+        <v>22040</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C25" s="7">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D25" s="7">
-        <v>2358</v>
+        <v>59723</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="H25" s="7">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="I25" s="7">
-        <v>1586</v>
+        <v>86583</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="M25" s="7">
-        <v>5</v>
+        <v>179</v>
       </c>
       <c r="N25" s="7">
-        <v>3944</v>
+        <v>146306</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C26" s="7">
-        <v>2</v>
+        <v>357</v>
       </c>
       <c r="D26" s="7">
-        <v>1684</v>
+        <v>284932</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="H26" s="7">
-        <v>2</v>
+        <v>349</v>
       </c>
       <c r="I26" s="7">
-        <v>1396</v>
+        <v>313735</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="M26" s="7">
-        <v>4</v>
+        <v>706</v>
       </c>
       <c r="N26" s="7">
-        <v>3080</v>
+        <v>598667</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,54 +2275,54 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="D27" s="7">
-        <v>418575</v>
+        <v>367973</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H27" s="7">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="I27" s="7">
-        <v>360562</v>
+        <v>439724</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="M27" s="7">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="N27" s="7">
-        <v>779138</v>
+        <v>807697</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
